--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/CALIFORNIA_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/CALIFORNIA_2018.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2356"/>
+  <dimension ref="A1:D2350"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C10">
@@ -504,7 +504,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C11">
@@ -574,7 +574,7 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C16">
@@ -927,7 +927,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C42">
@@ -940,7 +940,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>Amatenango del Valle</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C43">
@@ -979,7 +979,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C46">
@@ -1005,7 +1005,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C48">
@@ -1135,7 +1135,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C58">
@@ -1181,7 +1181,7 @@
         <v>24</v>
       </c>
       <c r="D61">
-        <v>9.921947347532743E-05</v>
+        <v>9.921947347532744E-05</v>
       </c>
     </row>
     <row r="62">
@@ -1226,7 +1226,7 @@
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C65">
@@ -1603,7 +1603,7 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C94">
@@ -1616,7 +1616,7 @@
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C95">
@@ -1655,7 +1655,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>Montecristo de Guerrero</t>
+          <t>Montecristo De Guerrero</t>
         </is>
       </c>
       <c r="C98">
@@ -1720,7 +1720,7 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C103">
@@ -1876,7 +1876,7 @@
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C115">
@@ -1889,7 +1889,7 @@
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C116">
@@ -2247,7 +2247,7 @@
         <v>24</v>
       </c>
       <c r="D143">
-        <v>9.921947347532743E-05</v>
+        <v>9.921947347532744E-05</v>
       </c>
     </row>
     <row r="144">
@@ -2505,7 +2505,7 @@
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>Coyame del Sotol</t>
+          <t>Coyame Del Sotol</t>
         </is>
       </c>
       <c r="C163">
@@ -2648,7 +2648,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C174">
@@ -2687,7 +2687,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C177">
@@ -2811,7 +2811,7 @@
         <v>24</v>
       </c>
       <c r="D186">
-        <v>9.921947347532743E-05</v>
+        <v>9.921947347532744E-05</v>
       </c>
     </row>
     <row r="187">
@@ -3012,7 +3012,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C202">
@@ -3025,7 +3025,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>San Francisco de Conchos</t>
+          <t>San Francisco De Conchos</t>
         </is>
       </c>
       <c r="C203">
@@ -3038,7 +3038,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C204">
@@ -3142,7 +3142,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C212">
@@ -3394,7 +3394,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C231">
@@ -3594,7 +3594,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C246">
@@ -3620,7 +3620,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -3677,7 +3677,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C252">
@@ -3710,7 +3710,7 @@
         <v>2363</v>
       </c>
       <c r="D254">
-        <v>0.009768983992591613</v>
+        <v>0.009768983992591612</v>
       </c>
     </row>
     <row r="255">
@@ -3877,7 +3877,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C267">
@@ -4059,7 +4059,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C281">
@@ -4092,7 +4092,7 @@
         <v>24</v>
       </c>
       <c r="D283">
-        <v>9.921947347532743E-05</v>
+        <v>9.921947347532744E-05</v>
       </c>
     </row>
     <row r="284">
@@ -4111,7 +4111,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C285">
@@ -4202,7 +4202,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C292">
@@ -4215,7 +4215,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C293">
@@ -4228,7 +4228,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C294">
@@ -4241,7 +4241,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C295">
@@ -4371,12 +4371,12 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C305">
@@ -4415,7 +4415,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C308">
@@ -4428,7 +4428,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C309">
@@ -4441,7 +4441,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C310">
@@ -4532,7 +4532,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C317">
@@ -4636,7 +4636,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C325">
@@ -4714,7 +4714,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C331">
@@ -4805,7 +4805,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C338">
@@ -4909,7 +4909,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C346">
@@ -4922,7 +4922,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C347">
@@ -5130,7 +5130,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C363">
@@ -5312,7 +5312,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C377">
@@ -5325,7 +5325,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C378">
@@ -5338,7 +5338,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C379">
@@ -5364,7 +5364,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C381">
@@ -5390,7 +5390,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C383">
@@ -5520,7 +5520,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Tenango del Aire</t>
+          <t>Tenango Del Aire</t>
         </is>
       </c>
       <c r="C393">
@@ -5533,7 +5533,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C394">
@@ -5715,7 +5715,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C408">
@@ -5793,7 +5793,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C414">
@@ -5806,7 +5806,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C415">
@@ -5819,7 +5819,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C416">
@@ -5832,7 +5832,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C417">
@@ -6006,7 +6006,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C430">
@@ -6019,7 +6019,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C431">
@@ -6032,7 +6032,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C432">
@@ -6136,7 +6136,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C440">
@@ -6188,7 +6188,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C444">
@@ -6292,7 +6292,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C452">
@@ -6344,7 +6344,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C456">
@@ -6370,7 +6370,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C458">
@@ -6396,7 +6396,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C460">
@@ -6422,7 +6422,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C462">
@@ -6448,7 +6448,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C464">
@@ -6513,7 +6513,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C469">
@@ -6596,7 +6596,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C475">
@@ -6635,7 +6635,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C478">
@@ -6648,7 +6648,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C479">
@@ -6700,7 +6700,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C483">
@@ -6713,7 +6713,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C484">
@@ -6739,7 +6739,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C486">
@@ -6752,7 +6752,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C487">
@@ -6791,7 +6791,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C490">
@@ -6804,7 +6804,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C491">
@@ -6817,7 +6817,7 @@
     <row r="492">
       <c r="B492" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C492">
@@ -6830,7 +6830,7 @@
     <row r="493">
       <c r="B493" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C493">
@@ -6895,7 +6895,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C498">
@@ -6908,7 +6908,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C499">
@@ -6960,7 +6960,7 @@
     <row r="503">
       <c r="B503" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C503">
@@ -6973,7 +6973,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C504">
@@ -7051,20 +7051,20 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C510">
         <v>221</v>
       </c>
       <c r="D510">
-        <v>0.0009136459849186401</v>
+        <v>0.00091364598491864</v>
       </c>
     </row>
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C511">
@@ -7090,7 +7090,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C513">
@@ -7103,7 +7103,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C514">
@@ -7129,7 +7129,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C516">
@@ -7168,7 +7168,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C519">
@@ -7214,7 +7214,7 @@
         <v>227</v>
       </c>
       <c r="D522">
-        <v>0.0009384508532874719</v>
+        <v>0.000938450853287472</v>
       </c>
     </row>
     <row r="523">
@@ -7337,7 +7337,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C532">
@@ -7363,7 +7363,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C534">
@@ -7389,7 +7389,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C536">
@@ -7415,7 +7415,7 @@
     <row r="538">
       <c r="B538" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C538">
@@ -7467,7 +7467,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C542">
@@ -7480,7 +7480,7 @@
     <row r="543">
       <c r="B543" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C543">
@@ -7641,7 +7641,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C555">
@@ -7732,7 +7732,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C562">
@@ -7745,7 +7745,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C563">
@@ -7823,7 +7823,7 @@
     <row r="569">
       <c r="B569" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C569">
@@ -7901,7 +7901,7 @@
     <row r="575">
       <c r="B575" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C575">
@@ -7953,7 +7953,7 @@
     <row r="579">
       <c r="B579" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C579">
@@ -7992,7 +7992,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C582">
@@ -8083,7 +8083,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C589">
@@ -8096,7 +8096,7 @@
     <row r="590">
       <c r="B590" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C590">
@@ -8109,7 +8109,7 @@
     <row r="591">
       <c r="B591" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C591">
@@ -8122,7 +8122,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C592">
@@ -8135,7 +8135,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C593">
@@ -8161,7 +8161,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C595">
@@ -8174,7 +8174,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C596">
@@ -8187,7 +8187,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C597">
@@ -8226,7 +8226,7 @@
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C600">
@@ -8304,7 +8304,7 @@
     <row r="606">
       <c r="B606" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C606">
@@ -8317,7 +8317,7 @@
     <row r="607">
       <c r="B607" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C607">
@@ -8369,7 +8369,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C611">
@@ -8395,7 +8395,7 @@
     <row r="613">
       <c r="B613" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C613">
@@ -8408,7 +8408,7 @@
     <row r="614">
       <c r="B614" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C614">
@@ -8447,7 +8447,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C617">
@@ -8564,7 +8564,7 @@
     <row r="626">
       <c r="B626" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C626">
@@ -8577,7 +8577,7 @@
     <row r="627">
       <c r="B627" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C627">
@@ -8590,7 +8590,7 @@
     <row r="628">
       <c r="B628" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C628">
@@ -8642,7 +8642,7 @@
     <row r="632">
       <c r="B632" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C632">
@@ -8655,7 +8655,7 @@
     <row r="633">
       <c r="B633" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C633">
@@ -8725,7 +8725,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C638">
@@ -8738,7 +8738,7 @@
     <row r="639">
       <c r="B639" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C639">
@@ -8803,7 +8803,7 @@
     <row r="644">
       <c r="B644" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C644">
@@ -8842,7 +8842,7 @@
     <row r="647">
       <c r="B647" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C647">
@@ -8868,7 +8868,7 @@
     <row r="649">
       <c r="B649" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C649">
@@ -8946,7 +8946,7 @@
     <row r="655">
       <c r="B655" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C655">
@@ -9037,7 +9037,7 @@
     <row r="662">
       <c r="B662" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C662">
@@ -9050,7 +9050,7 @@
     <row r="663">
       <c r="B663" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C663">
@@ -9167,7 +9167,7 @@
     <row r="672">
       <c r="B672" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C672">
@@ -9258,7 +9258,7 @@
     <row r="679">
       <c r="B679" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C679">
@@ -9271,7 +9271,7 @@
     <row r="680">
       <c r="B680" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C680">
@@ -9284,7 +9284,7 @@
     <row r="681">
       <c r="B681" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C681">
@@ -9336,7 +9336,7 @@
     <row r="685">
       <c r="B685" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C685">
@@ -9414,7 +9414,7 @@
     <row r="691">
       <c r="B691" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C691">
@@ -9427,7 +9427,7 @@
     <row r="692">
       <c r="B692" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C692">
@@ -9531,7 +9531,7 @@
     <row r="700">
       <c r="B700" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C700">
@@ -9596,7 +9596,7 @@
     <row r="705">
       <c r="B705" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C705">
@@ -9609,7 +9609,7 @@
     <row r="706">
       <c r="B706" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C706">
@@ -9635,7 +9635,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C708">
@@ -9648,7 +9648,7 @@
     <row r="709">
       <c r="B709" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C709">
@@ -9687,7 +9687,7 @@
     <row r="712">
       <c r="B712" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C712">
@@ -9713,7 +9713,7 @@
     <row r="714">
       <c r="B714" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C714">
@@ -9726,7 +9726,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C715">
@@ -9739,7 +9739,7 @@
     <row r="716">
       <c r="B716" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C716">
@@ -9752,14 +9752,14 @@
     <row r="717">
       <c r="B717" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C717">
         <v>24</v>
       </c>
       <c r="D717">
-        <v>9.921947347532743E-05</v>
+        <v>9.921947347532744E-05</v>
       </c>
     </row>
     <row r="718">
@@ -9791,7 +9791,7 @@
     <row r="720">
       <c r="B720" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C720">
@@ -9804,7 +9804,7 @@
     <row r="721">
       <c r="B721" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C721">
@@ -9843,7 +9843,7 @@
     <row r="724">
       <c r="B724" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C724">
@@ -9895,7 +9895,7 @@
     <row r="728">
       <c r="B728" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C728">
@@ -9908,7 +9908,7 @@
     <row r="729">
       <c r="B729" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C729">
@@ -9947,7 +9947,7 @@
     <row r="732">
       <c r="B732" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C732">
@@ -9960,7 +9960,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C733">
@@ -10110,13 +10110,13 @@
         <v>232</v>
       </c>
       <c r="D744">
-        <v>0.0009591215769281651</v>
+        <v>0.0009591215769281652</v>
       </c>
     </row>
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C745">
@@ -10129,7 +10129,7 @@
     <row r="746">
       <c r="B746" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C746">
@@ -10142,7 +10142,7 @@
     <row r="747">
       <c r="B747" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C747">
@@ -10155,7 +10155,7 @@
     <row r="748">
       <c r="B748" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C748">
@@ -10220,7 +10220,7 @@
     <row r="753">
       <c r="B753" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C753">
@@ -10233,7 +10233,7 @@
     <row r="754">
       <c r="B754" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C754">
@@ -10272,7 +10272,7 @@
     <row r="757">
       <c r="B757" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C757">
@@ -10285,7 +10285,7 @@
     <row r="758">
       <c r="B758" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C758">
@@ -10298,7 +10298,7 @@
     <row r="759">
       <c r="B759" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C759">
@@ -10641,7 +10641,7 @@
     <row r="785">
       <c r="B785" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C785">
@@ -10667,7 +10667,7 @@
     <row r="787">
       <c r="B787" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C787">
@@ -11538,7 +11538,7 @@
     <row r="854">
       <c r="B854" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C854">
@@ -11881,7 +11881,7 @@
     <row r="880">
       <c r="B880" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C880">
@@ -11985,7 +11985,7 @@
     <row r="888">
       <c r="B888" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C888">
@@ -12037,14 +12037,14 @@
     <row r="892">
       <c r="B892" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C892">
         <v>227</v>
       </c>
       <c r="D892">
-        <v>0.0009384508532874719</v>
+        <v>0.000938450853287472</v>
       </c>
     </row>
     <row r="893">
@@ -12115,7 +12115,7 @@
     <row r="898">
       <c r="B898" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C898">
@@ -12141,7 +12141,7 @@
     <row r="900">
       <c r="B900" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C900">
@@ -12245,7 +12245,7 @@
     <row r="908">
       <c r="B908" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C908">
@@ -12302,7 +12302,7 @@
     <row r="912">
       <c r="B912" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C912">
@@ -12315,7 +12315,7 @@
     <row r="913">
       <c r="B913" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C913">
@@ -12367,7 +12367,7 @@
     <row r="917">
       <c r="B917" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C917">
@@ -12458,7 +12458,7 @@
     <row r="924">
       <c r="B924" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C924">
@@ -12762,7 +12762,7 @@
     <row r="947">
       <c r="B947" t="inlineStr">
         <is>
-          <t>Lampazos de Naranjo</t>
+          <t>Lampazos De Naranjo</t>
         </is>
       </c>
       <c r="C947">
@@ -12801,7 +12801,7 @@
     <row r="950">
       <c r="B950" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C950">
@@ -12879,14 +12879,14 @@
     <row r="956">
       <c r="B956" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C956">
         <v>24</v>
       </c>
       <c r="D956">
-        <v>9.921947347532743E-05</v>
+        <v>9.921947347532744E-05</v>
       </c>
     </row>
     <row r="957">
@@ -12975,7 +12975,7 @@
     <row r="963">
       <c r="B963" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C963">
@@ -13079,7 +13079,7 @@
     <row r="971">
       <c r="B971" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C971">
@@ -13131,7 +13131,7 @@
     <row r="975">
       <c r="B975" t="inlineStr">
         <is>
-          <t>Capulálpam de Méndez</t>
+          <t>Capulálpam De Méndez</t>
         </is>
       </c>
       <c r="C975">
@@ -13157,7 +13157,7 @@
     <row r="977">
       <c r="B977" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C977">
@@ -13170,7 +13170,7 @@
     <row r="978">
       <c r="B978" t="inlineStr">
         <is>
-          <t>Chiquihuitlán de Benito Juárez</t>
+          <t>Chiquihuitlán De Benito Juárez</t>
         </is>
       </c>
       <c r="C978">
@@ -13183,7 +13183,7 @@
     <row r="979">
       <c r="B979" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C979">
@@ -13222,7 +13222,7 @@
     <row r="982">
       <c r="B982" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C982">
@@ -13261,7 +13261,7 @@
     <row r="985">
       <c r="B985" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C985">
@@ -13300,7 +13300,7 @@
     <row r="988">
       <c r="B988" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C988">
@@ -13313,7 +13313,7 @@
     <row r="989">
       <c r="B989" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C989">
@@ -13326,7 +13326,7 @@
     <row r="990">
       <c r="B990" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C990">
@@ -13352,7 +13352,7 @@
     <row r="992">
       <c r="B992" t="inlineStr">
         <is>
-          <t>Eloxochitlán de Flores Magón</t>
+          <t>Eloxochitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C992">
@@ -13365,7 +13365,7 @@
     <row r="993">
       <c r="B993" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C993">
@@ -13378,7 +13378,7 @@
     <row r="994">
       <c r="B994" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C994">
@@ -13404,7 +13404,7 @@
     <row r="996">
       <c r="B996" t="inlineStr">
         <is>
-          <t>Guelatao de Juárez</t>
+          <t>Guelatao De Juárez</t>
         </is>
       </c>
       <c r="C996">
@@ -13417,7 +13417,7 @@
     <row r="997">
       <c r="B997" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C997">
@@ -13430,7 +13430,7 @@
     <row r="998">
       <c r="B998" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C998">
@@ -13443,7 +13443,7 @@
     <row r="999">
       <c r="B999" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C999">
@@ -13456,7 +13456,7 @@
     <row r="1000">
       <c r="B1000" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C1000">
@@ -13482,7 +13482,7 @@
     <row r="1002">
       <c r="B1002" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C1002">
@@ -13508,7 +13508,7 @@
     <row r="1004">
       <c r="B1004" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C1004">
@@ -13521,7 +13521,7 @@
     <row r="1005">
       <c r="B1005" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C1005">
@@ -13703,7 +13703,7 @@
     <row r="1019">
       <c r="B1019" t="inlineStr">
         <is>
-          <t>Magdalena Yodocono de Porfirio Díaz</t>
+          <t>Magdalena Yodocono De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C1019">
@@ -13716,7 +13716,7 @@
     <row r="1020">
       <c r="B1020" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C1020">
@@ -13729,7 +13729,7 @@
     <row r="1021">
       <c r="B1021" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C1021">
@@ -13755,7 +13755,7 @@
     <row r="1023">
       <c r="B1023" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C1023">
@@ -13781,7 +13781,7 @@
     <row r="1025">
       <c r="B1025" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C1025">
@@ -13794,7 +13794,7 @@
     <row r="1026">
       <c r="B1026" t="inlineStr">
         <is>
-          <t>Mixistlán de la Reforma</t>
+          <t>Mixistlán De La Reforma</t>
         </is>
       </c>
       <c r="C1026">
@@ -13846,7 +13846,7 @@
     <row r="1030">
       <c r="B1030" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C1030">
@@ -13872,7 +13872,7 @@
     <row r="1032">
       <c r="B1032" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C1032">
@@ -13885,7 +13885,7 @@
     <row r="1033">
       <c r="B1033" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C1033">
@@ -13898,7 +13898,7 @@
     <row r="1034">
       <c r="B1034" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C1034">
@@ -13924,7 +13924,7 @@
     <row r="1036">
       <c r="B1036" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C1036">
@@ -13937,7 +13937,7 @@
     <row r="1037">
       <c r="B1037" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C1037">
@@ -13963,7 +13963,7 @@
     <row r="1039">
       <c r="B1039" t="inlineStr">
         <is>
-          <t>Rojas de Cuauhtémoc</t>
+          <t>Rojas De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1039">
@@ -14028,7 +14028,7 @@
     <row r="1044">
       <c r="B1044" t="inlineStr">
         <is>
-          <t>San Agustín de las Juntas</t>
+          <t>San Agustín De Las Juntas</t>
         </is>
       </c>
       <c r="C1044">
@@ -14301,7 +14301,7 @@
     <row r="1065">
       <c r="B1065" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C1065">
@@ -14327,7 +14327,7 @@
     <row r="1067">
       <c r="B1067" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C1067">
@@ -14418,7 +14418,7 @@
     <row r="1074">
       <c r="B1074" t="inlineStr">
         <is>
-          <t>San Baltazar Yatzachi el Bajo</t>
+          <t>San Baltazar Yatzachi El Bajo</t>
         </is>
       </c>
       <c r="C1074">
@@ -14613,7 +14613,7 @@
     <row r="1089">
       <c r="B1089" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C1089">
@@ -14665,7 +14665,7 @@
     <row r="1093">
       <c r="B1093" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C1093">
@@ -14756,7 +14756,7 @@
     <row r="1100">
       <c r="B1100" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C1100">
@@ -15081,7 +15081,7 @@
     <row r="1125">
       <c r="B1125" t="inlineStr">
         <is>
-          <t>San José del Peñasco</t>
+          <t>San José Del Peñasco</t>
         </is>
       </c>
       <c r="C1125">
@@ -15094,14 +15094,14 @@
     <row r="1126">
       <c r="B1126" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C1126">
         <v>24</v>
       </c>
       <c r="D1126">
-        <v>9.921947347532743E-05</v>
+        <v>9.921947347532744E-05</v>
       </c>
     </row>
     <row r="1127">
@@ -15250,7 +15250,7 @@
     <row r="1138">
       <c r="B1138" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C1138">
@@ -15432,7 +15432,7 @@
     <row r="1152">
       <c r="B1152" t="inlineStr">
         <is>
-          <t>San Juan de los Cués</t>
+          <t>San Juan De Los Cués</t>
         </is>
       </c>
       <c r="C1152">
@@ -15445,7 +15445,7 @@
     <row r="1153">
       <c r="B1153" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C1153">
@@ -15458,7 +15458,7 @@
     <row r="1154">
       <c r="B1154" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1154">
@@ -15991,7 +15991,7 @@
     <row r="1195">
       <c r="B1195" t="inlineStr">
         <is>
-          <t>San Martín de los Cansecos</t>
+          <t>San Martín De Los Cansecos</t>
         </is>
       </c>
       <c r="C1195">
@@ -16108,7 +16108,7 @@
     <row r="1204">
       <c r="B1204" t="inlineStr">
         <is>
-          <t>San Mateo del Mar</t>
+          <t>San Mateo Del Mar</t>
         </is>
       </c>
       <c r="C1204">
@@ -16329,7 +16329,7 @@
     <row r="1221">
       <c r="B1221" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C1221">
@@ -16342,7 +16342,7 @@
     <row r="1222">
       <c r="B1222" t="inlineStr">
         <is>
-          <t>San Miguel del Río</t>
+          <t>San Miguel Del Río</t>
         </is>
       </c>
       <c r="C1222">
@@ -16368,7 +16368,7 @@
     <row r="1224">
       <c r="B1224" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C1224">
@@ -16706,7 +16706,7 @@
     <row r="1250">
       <c r="B1250" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C1250">
@@ -16810,7 +16810,7 @@
     <row r="1258">
       <c r="B1258" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C1258">
@@ -16934,7 +16934,7 @@
         <v>24</v>
       </c>
       <c r="D1267">
-        <v>9.921947347532743E-05</v>
+        <v>9.921947347532744E-05</v>
       </c>
     </row>
     <row r="1268">
@@ -17161,7 +17161,7 @@
     <row r="1285">
       <c r="B1285" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C1285">
@@ -17174,7 +17174,7 @@
     <row r="1286">
       <c r="B1286" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C1286">
@@ -17187,7 +17187,7 @@
     <row r="1287">
       <c r="B1287" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C1287">
@@ -17434,7 +17434,7 @@
     <row r="1306">
       <c r="B1306" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C1306">
@@ -17694,7 +17694,7 @@
     <row r="1326">
       <c r="B1326" t="inlineStr">
         <is>
-          <t>Santa Cruz de Bravo</t>
+          <t>Santa Cruz De Bravo</t>
         </is>
       </c>
       <c r="C1326">
@@ -17753,13 +17753,13 @@
         <v>24</v>
       </c>
       <c r="D1330">
-        <v>9.921947347532743E-05</v>
+        <v>9.921947347532744E-05</v>
       </c>
     </row>
     <row r="1331">
       <c r="B1331" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C1331">
@@ -17850,7 +17850,7 @@
     <row r="1338">
       <c r="B1338" t="inlineStr">
         <is>
-          <t>Santa Inés de Zaragoza</t>
+          <t>Santa Inés De Zaragoza</t>
         </is>
       </c>
       <c r="C1338">
@@ -17863,7 +17863,7 @@
     <row r="1339">
       <c r="B1339" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C1339">
@@ -17889,7 +17889,7 @@
     <row r="1341">
       <c r="B1341" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C1341">
@@ -17922,7 +17922,7 @@
         <v>24</v>
       </c>
       <c r="D1343">
-        <v>9.921947347532743E-05</v>
+        <v>9.921947347532744E-05</v>
       </c>
     </row>
     <row r="1344">
@@ -18084,7 +18084,7 @@
     <row r="1356">
       <c r="B1356" t="inlineStr">
         <is>
-          <t>Santa María del Rosario</t>
+          <t>Santa María Del Rosario</t>
         </is>
       </c>
       <c r="C1356">
@@ -18097,7 +18097,7 @@
     <row r="1357">
       <c r="B1357" t="inlineStr">
         <is>
-          <t>Santa María del Tule</t>
+          <t>Santa María Del Tule</t>
         </is>
       </c>
       <c r="C1357">
@@ -18201,7 +18201,7 @@
     <row r="1365">
       <c r="B1365" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C1365">
@@ -18663,7 +18663,7 @@
         <v>24</v>
       </c>
       <c r="D1400">
-        <v>9.921947347532743E-05</v>
+        <v>9.921947347532744E-05</v>
       </c>
     </row>
     <row r="1401">
@@ -18695,7 +18695,7 @@
     <row r="1403">
       <c r="B1403" t="inlineStr">
         <is>
-          <t>Santiago del Río</t>
+          <t>Santiago Del Río</t>
         </is>
       </c>
       <c r="C1403">
@@ -18780,7 +18780,7 @@
         <v>230</v>
       </c>
       <c r="D1409">
-        <v>0.0009508532874718879</v>
+        <v>0.000950853287471888</v>
       </c>
     </row>
     <row r="1410">
@@ -19241,7 +19241,7 @@
     <row r="1445">
       <c r="B1445" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C1445">
@@ -19404,7 +19404,7 @@
         <v>232</v>
       </c>
       <c r="D1457">
-        <v>0.0009591215769281651</v>
+        <v>0.0009591215769281652</v>
       </c>
     </row>
     <row r="1458">
@@ -19579,7 +19579,7 @@
     <row r="1471">
       <c r="B1471" t="inlineStr">
         <is>
-          <t>Sitio de Xitlapehua</t>
+          <t>Sitio De Xitlapehua</t>
         </is>
       </c>
       <c r="C1471">
@@ -19605,7 +19605,7 @@
     <row r="1473">
       <c r="B1473" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C1473">
@@ -19618,7 +19618,7 @@
     <row r="1474">
       <c r="B1474" t="inlineStr">
         <is>
-          <t>Tanetze de Zaragoza</t>
+          <t>Tanetze De Zaragoza</t>
         </is>
       </c>
       <c r="C1474">
@@ -19644,7 +19644,7 @@
     <row r="1476">
       <c r="B1476" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C1476">
@@ -19657,7 +19657,7 @@
     <row r="1477">
       <c r="B1477" t="inlineStr">
         <is>
-          <t>Teococuilco de Marcos Pérez</t>
+          <t>Teococuilco De Marcos Pérez</t>
         </is>
       </c>
       <c r="C1477">
@@ -19670,7 +19670,7 @@
     <row r="1478">
       <c r="B1478" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C1478">
@@ -19683,7 +19683,7 @@
     <row r="1479">
       <c r="B1479" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C1479">
@@ -19709,7 +19709,7 @@
     <row r="1481">
       <c r="B1481" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C1481">
@@ -19722,7 +19722,7 @@
     <row r="1482">
       <c r="B1482" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C1482">
@@ -19735,7 +19735,7 @@
     <row r="1483">
       <c r="B1483" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C1483">
@@ -19761,7 +19761,7 @@
     <row r="1485">
       <c r="B1485" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C1485">
@@ -19774,7 +19774,7 @@
     <row r="1486">
       <c r="B1486" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C1486">
@@ -19826,7 +19826,7 @@
     <row r="1490">
       <c r="B1490" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C1490">
@@ -19839,7 +19839,7 @@
     <row r="1491">
       <c r="B1491" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C1491">
@@ -19852,7 +19852,7 @@
     <row r="1492">
       <c r="B1492" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C1492">
@@ -19865,7 +19865,7 @@
     <row r="1493">
       <c r="B1493" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C1493">
@@ -19878,7 +19878,7 @@
     <row r="1494">
       <c r="B1494" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C1494">
@@ -19917,7 +19917,7 @@
     <row r="1497">
       <c r="B1497" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C1497">
@@ -19930,7 +19930,7 @@
     <row r="1498">
       <c r="B1498" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C1498">
@@ -19943,7 +19943,7 @@
     <row r="1499">
       <c r="B1499" t="inlineStr">
         <is>
-          <t>Villa Tejúpam de la Unión</t>
+          <t>Villa Tejúpam De La Unión</t>
         </is>
       </c>
       <c r="C1499">
@@ -19982,7 +19982,7 @@
     <row r="1502">
       <c r="B1502" t="inlineStr">
         <is>
-          <t>Yutanduchi de Guerrero</t>
+          <t>Yutanduchi De Guerrero</t>
         </is>
       </c>
       <c r="C1502">
@@ -19995,7 +19995,7 @@
     <row r="1503">
       <c r="B1503" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C1503">
@@ -20034,7 +20034,7 @@
     <row r="1506">
       <c r="B1506" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C1506">
@@ -20098,7 +20098,7 @@
         <v>227</v>
       </c>
       <c r="D1510">
-        <v>0.0009384508532874719</v>
+        <v>0.000938450853287472</v>
       </c>
     </row>
     <row r="1511">
@@ -20390,7 +20390,7 @@
     <row r="1533">
       <c r="B1533" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C1533">
@@ -20468,7 +20468,7 @@
     <row r="1539">
       <c r="B1539" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C1539">
@@ -20611,7 +20611,7 @@
     <row r="1550">
       <c r="B1550" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C1550">
@@ -20631,7 +20631,7 @@
         <v>24</v>
       </c>
       <c r="D1551">
-        <v>9.921947347532743E-05</v>
+        <v>9.921947347532744E-05</v>
       </c>
     </row>
     <row r="1552">
@@ -20754,7 +20754,7 @@
     <row r="1561">
       <c r="B1561" t="inlineStr">
         <is>
-          <t>Cuapiaxtla de Madero</t>
+          <t>Cuapiaxtla De Madero</t>
         </is>
       </c>
       <c r="C1561">
@@ -20806,7 +20806,7 @@
     <row r="1565">
       <c r="B1565" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C1565">
@@ -20819,7 +20819,7 @@
     <row r="1566">
       <c r="B1566" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C1566">
@@ -21027,7 +21027,7 @@
     <row r="1582">
       <c r="B1582" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C1582">
@@ -21040,7 +21040,7 @@
     <row r="1583">
       <c r="B1583" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C1583">
@@ -21105,7 +21105,7 @@
     <row r="1588">
       <c r="B1588" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C1588">
@@ -21131,7 +21131,7 @@
     <row r="1590">
       <c r="B1590" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C1590">
@@ -21170,7 +21170,7 @@
     <row r="1593">
       <c r="B1593" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1593">
@@ -21313,7 +21313,7 @@
     <row r="1604">
       <c r="B1604" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1604">
@@ -21326,7 +21326,7 @@
     <row r="1605">
       <c r="B1605" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C1605">
@@ -21346,7 +21346,7 @@
         <v>24</v>
       </c>
       <c r="D1606">
-        <v>9.921947347532743E-05</v>
+        <v>9.921947347532744E-05</v>
       </c>
     </row>
     <row r="1607">
@@ -21495,7 +21495,7 @@
     <row r="1618">
       <c r="B1618" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1618">
@@ -21625,7 +21625,7 @@
     <row r="1628">
       <c r="B1628" t="inlineStr">
         <is>
-          <t>San Diego la Mesa Tochimiltzingo</t>
+          <t>San Diego La Mesa Tochimiltzingo</t>
         </is>
       </c>
       <c r="C1628">
@@ -21827,7 +21827,7 @@
         <v>24</v>
       </c>
       <c r="D1643">
-        <v>9.921947347532743E-05</v>
+        <v>9.921947347532744E-05</v>
       </c>
     </row>
     <row r="1644">
@@ -21846,7 +21846,7 @@
     <row r="1645">
       <c r="B1645" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C1645">
@@ -21898,7 +21898,7 @@
     <row r="1649">
       <c r="B1649" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1649">
@@ -21911,7 +21911,7 @@
     <row r="1650">
       <c r="B1650" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1650">
@@ -22028,7 +22028,7 @@
     <row r="1659">
       <c r="B1659" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1659">
@@ -22132,7 +22132,7 @@
     <row r="1667">
       <c r="B1667" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1667">
@@ -22145,7 +22145,7 @@
     <row r="1668">
       <c r="B1668" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C1668">
@@ -22158,7 +22158,7 @@
     <row r="1669">
       <c r="B1669" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1669">
@@ -22236,7 +22236,7 @@
     <row r="1675">
       <c r="B1675" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1675">
@@ -22262,7 +22262,7 @@
     <row r="1677">
       <c r="B1677" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1677">
@@ -22275,7 +22275,7 @@
     <row r="1678">
       <c r="B1678" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1678">
@@ -22340,7 +22340,7 @@
     <row r="1683">
       <c r="B1683" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1683">
@@ -22496,7 +22496,7 @@
     <row r="1695">
       <c r="B1695" t="inlineStr">
         <is>
-          <t>Totoltepec de Guerrero</t>
+          <t>Totoltepec De Guerrero</t>
         </is>
       </c>
       <c r="C1695">
@@ -22522,7 +22522,7 @@
     <row r="1697">
       <c r="B1697" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C1697">
@@ -22574,7 +22574,7 @@
     <row r="1701">
       <c r="B1701" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C1701">
@@ -22652,7 +22652,7 @@
     <row r="1707">
       <c r="B1707" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C1707">
@@ -22852,7 +22852,7 @@
       </c>
       <c r="B1722" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1722">
@@ -22878,7 +22878,7 @@
     <row r="1724">
       <c r="B1724" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1724">
@@ -22956,7 +22956,7 @@
     <row r="1730">
       <c r="B1730" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1730">
@@ -22969,7 +22969,7 @@
     <row r="1731">
       <c r="B1731" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1731">
@@ -23008,7 +23008,7 @@
     <row r="1734">
       <c r="B1734" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1734">
@@ -23047,7 +23047,7 @@
     <row r="1737">
       <c r="B1737" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1737">
@@ -23265,7 +23265,7 @@
     <row r="1753">
       <c r="B1753" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1753">
@@ -23278,7 +23278,7 @@
     <row r="1754">
       <c r="B1754" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1754">
@@ -23343,7 +23343,7 @@
     <row r="1759">
       <c r="B1759" t="inlineStr">
         <is>
-          <t>Cerro de San Pedro</t>
+          <t>Cerro De San Pedro</t>
         </is>
       </c>
       <c r="C1759">
@@ -23369,7 +23369,7 @@
     <row r="1761">
       <c r="B1761" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1761">
@@ -23512,7 +23512,7 @@
     <row r="1772">
       <c r="B1772" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1772">
@@ -23590,7 +23590,7 @@
     <row r="1778">
       <c r="B1778" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1778">
@@ -23668,7 +23668,7 @@
     <row r="1784">
       <c r="B1784" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1784">
@@ -23694,7 +23694,7 @@
     <row r="1786">
       <c r="B1786" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1786">
@@ -23798,7 +23798,7 @@
     <row r="1794">
       <c r="B1794" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1794">
@@ -23850,7 +23850,7 @@
     <row r="1798">
       <c r="B1798" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1798">
@@ -23863,7 +23863,7 @@
     <row r="1799">
       <c r="B1799" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1799">
@@ -23876,7 +23876,7 @@
     <row r="1800">
       <c r="B1800" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1800">
@@ -23889,7 +23889,7 @@
     <row r="1801">
       <c r="B1801" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C1801">
@@ -23902,7 +23902,7 @@
     <row r="1802">
       <c r="B1802" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1802">
@@ -23915,7 +23915,7 @@
     <row r="1803">
       <c r="B1803" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1803">
@@ -24122,7 +24122,7 @@
         <v>233</v>
       </c>
       <c r="D1818">
-        <v>0.0009632557216563037</v>
+        <v>0.0009632557216563036</v>
       </c>
     </row>
     <row r="1819">
@@ -24718,7 +24718,7 @@
     <row r="1864">
       <c r="B1864" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1864">
@@ -24874,7 +24874,7 @@
     <row r="1876">
       <c r="B1876" t="inlineStr">
         <is>
-          <t>San Felipe de Jesús</t>
+          <t>San Felipe De Jesús</t>
         </is>
       </c>
       <c r="C1876">
@@ -24913,7 +24913,7 @@
     <row r="1879">
       <c r="B1879" t="inlineStr">
         <is>
-          <t>San Miguel de Horcasitas</t>
+          <t>San Miguel De Horcasitas</t>
         </is>
       </c>
       <c r="C1879">
@@ -24926,7 +24926,7 @@
     <row r="1880">
       <c r="B1880" t="inlineStr">
         <is>
-          <t>San Pedro de la Cueva</t>
+          <t>San Pedro De La Cueva</t>
         </is>
       </c>
       <c r="C1880">
@@ -25178,7 +25178,7 @@
     <row r="1899">
       <c r="B1899" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1899">
@@ -25211,7 +25211,7 @@
         <v>24</v>
       </c>
       <c r="D1901">
-        <v>9.921947347532743E-05</v>
+        <v>9.921947347532744E-05</v>
       </c>
     </row>
     <row r="1902">
@@ -25664,7 +25664,7 @@
     <row r="1936">
       <c r="B1936" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1936">
@@ -25760,7 +25760,7 @@
       </c>
       <c r="B1943" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1943">
@@ -25786,7 +25786,7 @@
     <row r="1945">
       <c r="B1945" t="inlineStr">
         <is>
-          <t>Amaxac de Guerrero</t>
+          <t>Amaxac De Guerrero</t>
         </is>
       </c>
       <c r="C1945">
@@ -25799,7 +25799,7 @@
     <row r="1946">
       <c r="B1946" t="inlineStr">
         <is>
-          <t>Apetatitlán de Antonio Carvajal</t>
+          <t>Apetatitlán De Antonio Carvajal</t>
         </is>
       </c>
       <c r="C1946">
@@ -25871,13 +25871,13 @@
         <v>241</v>
       </c>
       <c r="D1951">
-        <v>0.0009963288794814129</v>
+        <v>0.0009963288794814127</v>
       </c>
     </row>
     <row r="1952">
       <c r="B1952" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1952">
@@ -25981,7 +25981,7 @@
     <row r="1960">
       <c r="B1960" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1960">
@@ -26033,7 +26033,7 @@
     <row r="1964">
       <c r="B1964" t="inlineStr">
         <is>
-          <t>Mazatecochco de José María Morelos</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C1964">
@@ -26046,7 +26046,7 @@
     <row r="1965">
       <c r="B1965" t="inlineStr">
         <is>
-          <t>Muñoz de Domingo Arenas</t>
+          <t>Muñoz De Domingo Arenas</t>
         </is>
       </c>
       <c r="C1965">
@@ -26059,7 +26059,7 @@
     <row r="1966">
       <c r="B1966" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1966">
@@ -26098,7 +26098,7 @@
     <row r="1969">
       <c r="B1969" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1969">
@@ -26176,7 +26176,7 @@
     <row r="1975">
       <c r="B1975" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1975">
@@ -26189,7 +26189,7 @@
     <row r="1976">
       <c r="B1976" t="inlineStr">
         <is>
-          <t>Sanctórum de Lázaro Cárdenas</t>
+          <t>Sanctórum De Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C1976">
@@ -26293,7 +26293,7 @@
     <row r="1984">
       <c r="B1984" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1984">
@@ -26332,7 +26332,7 @@
     <row r="1987">
       <c r="B1987" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1987">
@@ -26488,7 +26488,7 @@
     <row r="1999">
       <c r="B1999" t="inlineStr">
         <is>
-          <t>Ziltlaltépec de Trinidad Sánchez Santos</t>
+          <t>Ziltlaltépec De Trinidad Sánchez Santos</t>
         </is>
       </c>
       <c r="C1999">
@@ -26623,7 +26623,7 @@
     <row r="2009">
       <c r="B2009" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C2009">
@@ -26675,7 +26675,7 @@
     <row r="2013">
       <c r="B2013" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C2013">
@@ -26831,7 +26831,7 @@
     <row r="2025">
       <c r="B2025" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C2025">
@@ -26857,7 +26857,7 @@
     <row r="2027">
       <c r="B2027" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C2027">
@@ -26909,14 +26909,14 @@
     <row r="2031">
       <c r="B2031" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C2031">
         <v>24</v>
       </c>
       <c r="D2031">
-        <v>9.921947347532743E-05</v>
+        <v>9.921947347532744E-05</v>
       </c>
     </row>
     <row r="2032">
@@ -26935,7 +26935,7 @@
     <row r="2033">
       <c r="B2033" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C2033">
@@ -27039,7 +27039,7 @@
     <row r="2041">
       <c r="B2041" t="inlineStr">
         <is>
-          <t>Chinampa de Gorostiza</t>
+          <t>Chinampa De Gorostiza</t>
         </is>
       </c>
       <c r="C2041">
@@ -27221,7 +27221,7 @@
     <row r="2055">
       <c r="B2055" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C2055">
@@ -27234,7 +27234,7 @@
     <row r="2056">
       <c r="B2056" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C2056">
@@ -27410,7 +27410,7 @@
         <v>24</v>
       </c>
       <c r="D2069">
-        <v>9.921947347532743E-05</v>
+        <v>9.921947347532744E-05</v>
       </c>
     </row>
     <row r="2070">
@@ -27449,13 +27449,13 @@
         <v>24</v>
       </c>
       <c r="D2072">
-        <v>9.921947347532743E-05</v>
+        <v>9.921947347532744E-05</v>
       </c>
     </row>
     <row r="2073">
       <c r="B2073" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C2073">
@@ -27468,7 +27468,7 @@
     <row r="2074">
       <c r="B2074" t="inlineStr">
         <is>
-          <t>Huiloapan de Cuauhtémoc</t>
+          <t>Huiloapan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C2074">
@@ -27481,7 +27481,7 @@
     <row r="2075">
       <c r="B2075" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C2075">
@@ -27533,7 +27533,7 @@
     <row r="2079">
       <c r="B2079" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C2079">
@@ -27546,7 +27546,7 @@
     <row r="2080">
       <c r="B2080" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C2080">
@@ -27559,7 +27559,7 @@
     <row r="2081">
       <c r="B2081" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C2081">
@@ -27572,7 +27572,7 @@
     <row r="2082">
       <c r="B2082" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C2082">
@@ -27728,7 +27728,7 @@
     <row r="2094">
       <c r="B2094" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C2094">
@@ -27767,7 +27767,7 @@
     <row r="2097">
       <c r="B2097" t="inlineStr">
         <is>
-          <t>Landero y Coss</t>
+          <t>Landero Y Coss</t>
         </is>
       </c>
       <c r="C2097">
@@ -27806,7 +27806,7 @@
     <row r="2100">
       <c r="B2100" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C2100">
@@ -27819,7 +27819,7 @@
     <row r="2101">
       <c r="B2101" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C2101">
@@ -27871,7 +27871,7 @@
     <row r="2105">
       <c r="B2105" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C2105">
@@ -27910,7 +27910,7 @@
     <row r="2108">
       <c r="B2108" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C2108">
@@ -27962,7 +27962,7 @@
     <row r="2112">
       <c r="B2112" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C2112">
@@ -27988,7 +27988,7 @@
     <row r="2114">
       <c r="B2114" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C2114">
@@ -28131,7 +28131,7 @@
     <row r="2125">
       <c r="B2125" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C2125">
@@ -28183,7 +28183,7 @@
     <row r="2129">
       <c r="B2129" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C2129">
@@ -28196,7 +28196,7 @@
     <row r="2130">
       <c r="B2130" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C2130">
@@ -28248,7 +28248,7 @@
     <row r="2134">
       <c r="B2134" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C2134">
@@ -28391,7 +28391,7 @@
     <row r="2145">
       <c r="B2145" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C2145">
@@ -28443,7 +28443,7 @@
     <row r="2149">
       <c r="B2149" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C2149">
@@ -28534,7 +28534,7 @@
     <row r="2156">
       <c r="B2156" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C2156">
@@ -28632,7 +28632,7 @@
         <v>24</v>
       </c>
       <c r="D2163">
-        <v>9.921947347532743E-05</v>
+        <v>9.921947347532744E-05</v>
       </c>
     </row>
     <row r="2164">
@@ -28807,7 +28807,7 @@
     <row r="2177">
       <c r="B2177" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C2177">
@@ -28989,7 +28989,7 @@
     <row r="2191">
       <c r="B2191" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C2191">
@@ -29139,13 +29139,13 @@
         <v>24</v>
       </c>
       <c r="D2202">
-        <v>9.921947347532743E-05</v>
+        <v>9.921947347532744E-05</v>
       </c>
     </row>
     <row r="2203">
       <c r="B2203" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C2203">
@@ -29158,7 +29158,7 @@
     <row r="2204">
       <c r="B2204" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C2204">
@@ -29326,7 +29326,7 @@
         <v>24</v>
       </c>
       <c r="D2216">
-        <v>9.921947347532743E-05</v>
+        <v>9.921947347532744E-05</v>
       </c>
     </row>
     <row r="2217">
@@ -30377,7 +30377,7 @@
     <row r="2297">
       <c r="B2297" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C2297">
@@ -30403,7 +30403,7 @@
     <row r="2299">
       <c r="B2299" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C2299">
@@ -30429,7 +30429,7 @@
     <row r="2301">
       <c r="B2301" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C2301">
@@ -30572,7 +30572,7 @@
     <row r="2312">
       <c r="B2312" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C2312">
@@ -30663,7 +30663,7 @@
     <row r="2319">
       <c r="B2319" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C2319">
@@ -30728,7 +30728,7 @@
     <row r="2324">
       <c r="B2324" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C2324">
@@ -30741,7 +30741,7 @@
     <row r="2325">
       <c r="B2325" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C2325">
@@ -30754,7 +30754,7 @@
     <row r="2326">
       <c r="B2326" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C2326">
@@ -30897,7 +30897,7 @@
     <row r="2337">
       <c r="B2337" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C2337">
@@ -30910,7 +30910,7 @@
     <row r="2338">
       <c r="B2338" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C2338">
@@ -30936,7 +30936,7 @@
     <row r="2340">
       <c r="B2340" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C2340">
@@ -30975,7 +30975,7 @@
     <row r="2343">
       <c r="B2343" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C2343">
@@ -31008,7 +31008,7 @@
         <v>24</v>
       </c>
       <c r="D2345">
-        <v>9.921947347532743E-05</v>
+        <v>9.921947347532744E-05</v>
       </c>
     </row>
     <row r="2346">
@@ -31074,41 +31074,6 @@
       </c>
       <c r="D2350">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2352">
-      <c r="A2352" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 794,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="2353">
-      <c r="A2353" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="2354">
-      <c r="A2354" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="2355">
-      <c r="A2355" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="2356">
-      <c r="A2356" t="inlineStr">
-        <is>
-          <t>Diciembre de 2019</t>
-        </is>
       </c>
     </row>
   </sheetData>
